--- a/biology/Zoologie/Gérard_Paul_Deshayes/Gérard_Paul_Deshayes.xlsx
+++ b/biology/Zoologie/Gérard_Paul_Deshayes/Gérard_Paul_Deshayes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Paul_Deshayes</t>
+          <t>Gérard_Paul_Deshayes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Paul Deshayes (13 mai 1795 - 9 juin 1875), est un géologue et conchyliologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Paul_Deshayes</t>
+          <t>Gérard_Paul_Deshayes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Nancy où son père est professeur de physique expérimentale à l'école centrale du département de la Meurthe.
 Il étudie la médecine à Strasbourg mais il l'abandonne pour se consacrer à l'histoire naturelle. Il suit les cours de Lamarck à Paris. Pendant quelque temps il donne des cours particuliers de géologie puis enseigne l'histoire naturelle au Muséum national d'histoire naturelle.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Paul_Deshayes</t>
+          <t>Gérard_Paul_Deshayes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Volumes II et III de l'Histoire naturelle des vers, parus dans l'Encyclopédie méthodique en 1830 et 1832
 Description des coquilles fossiles des environs de Paris (2 volumes, 1824-1837)
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Paul_Deshayes</t>
+          <t>Gérard_Paul_Deshayes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « Gérard Paul Deshayes », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).</t>
         </is>
